--- a/upload/mac_uploads (1).xlsx
+++ b/upload/mac_uploads (1).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>product_id</t>
   </si>
@@ -27,10 +27,7 @@
     <t>mac_address</t>
   </si>
   <si>
-    <t>mnt3</t>
-  </si>
-  <si>
-    <t>pqe3</t>
+    <t>0A581C04</t>
   </si>
 </sst>
 </file>
@@ -340,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -348,16 +345,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -370,18 +367,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
